--- a/output/Total_time_range_data/黑龙江省/大庆市_学习考察.xlsx
+++ b/output/Total_time_range_data/黑龙江省/大庆市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,510 +436,560 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>61</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>大庆市人民政府办公室关于进一步提高行政效能优化经济发展环境的实施意见</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2012-08-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100372/201208/c05_77633.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['大庆市人民政府办公室关于进一步提高行政效能优化经济发展环境的实施意见_庆政办发_大庆市人民政府', '为了认真贯彻落实《关于进一步提高行政效能优化经济发展环境的若干意见》（黑办发〔2012〕18号）精神，结合我市实际，特制定本实施意见。', '（一）进一步加强各级各类行政服务中心建设。严格落实《中共大庆市委办公室、大庆市人民政府办公室印发＜关于进一步发挥行政服务中心功能深入推进行政审批服务集中办理工作方案＞的通知》（庆办发〔2012〕1号）精神，统一职责、权限和服务标准，做到审批服务项目进驻行政服务中心到位，审批权限对大厅窗口授权到位；进一步加大政府办事公开力度，加强对政府规范性文件的清理；进一步精简审批手续，打破审批壁垒，优化审批流程，统一受理、提前介入、信息共享、同步审查、跟踪服务，严格实行首问负责、一次性告知、并联审批、限时办结等制度，有效提升行政服务中心一个窗口办理、一站式服务的整体效能；进一步完善监管机制，建立投诉平台，将群众评议环节纳入行政服务中心管理系统，实行“一事一评”，不断提高服务质量。（市监察局、市行政服务中心牵头，市编办、市政府办公室、市政府法制办公室等部门配合）', '（二）全面实行重大项目审批“绿色通道”服务。认真抓好《关于印发＜大庆市重大项目审批“绿色通道”服务实施办法（试行）＞的通知》（庆纪发〔2012〕1号）的落实工作，对进入“绿色通道”审批的项目，在执行一次性告知、限时办结、服务承诺等基础上，实行全程代办、主动协办、上门承办、容缺预审服务，并根据项目建设单位意愿，积极主动提供政策法规咨询、前期材料准备、行政审批办理、审批结果答复等服务。对前置审批条件较多的，审批牵头部门要与协办部门主动协调，集中办理，切实提高审批效率。进一步抓好重点产业签约项目的落地工作，建立项目跟踪问效机制，对本级解决不了的问题要及时报上一级领导或部门研究协调解决，对本级承办的项目提出否定意见的要向上一级报备，切实解决审批“中梗阻”、“无疾而终”的问题。（市发改委、市监察局、市行政服务中心牵头，市政府法制办公室、市工信委、市政府督查室等部门配合）', '（三）加快推进电子政务和电子监察系统建设。认真落实《中共大庆市委、大庆市人民政府关于深入开展“强化效能监察、优化发展环境、深化作风建设”活动的实施意见》（庆发〔2012〕6号）精神，加快推进电子政务建设，使涉企行政审批事项全部纳入网上平台办理。在此基础上，深入推进电子监察系统建设，实现对行政许可和非行政许可审批、公共服务事项、重点建设工程项目、行政处罚和公共资源交易的全过程、全范围进行监察，及时发现和纠正超时办结、违规办理等行为，有效规范行政权力运行。（市工信委、市监察局、市行政服务中心牵头，市财政局、市城乡建设局、市政府法制办公室、市国土资源局、市国资委等部门配合）', '（四）严格规范涉企收费行为。严格按照《大庆市人民政府办公室印发关于完善服务保障制度规范行政执法行为的实施意见》（庆政办发〔2012〕49号）要求，进一步清理涉企收费项目，对应取消的收费项目一律取消，切实减少行政事业性收费项目；对市重点招商项目要研究依法适当放宽收费标准。向社会公布收费项目目录，实行涉企收费全过程公开透明、阳光操作，积极探索涉企收费定期统一征收试点工作，未经批准的统一征收以外的收费行为，一律视为违规收费。坚决制止多头收费、违规增设收费项目和提高收费标准等行为，有效解决企业负担过重问题。（市财政局牵头，市物价监督管理局、市工信委、市发改委、市商务局、市审计局、市监察局、市政府法制办公室等部门配合）', '（五）严肃治理乱收费、乱摊派、乱罚款问题。对利用职务之便向企业索要赞助、摊派费用、摊派报刊，强行要求企业参加收费培训，以及以服务为名强制收费或变相搭车收费的，要坚决予以查处。进一步规范执法中的收费行为，实行执法与收费分离，严肃处理不开具合法收据以及坐支挪用、私分罚款等违纪违法行为。（市监察局牵头，市政府法制办公室、市财政局、市物价监督管理局、市工信委等部门配合）', '（六）积极推行涉企检查备案制。除食品卫生、药品安全、安全生产、环境保护等涉及公共安全的执法检查及党委、政府要求的检查，可先检查后备案外，其他检查都必须事先将检查依据、内容、方式、时限、人员报市减轻企业负担办公室备案后方可检查。（市监察局、市减轻企业负担办公室牵头，市政府法制办公室、市政府有关部门配合）', '（七）有效规范涉企处罚自由裁量权。进一步梳理有裁量幅度的行政处罚条款，细化量化自由裁量基准，面向社会公开处罚依据、处罚标准和处罚结果，接受企业和社会的监督。（市政府法制办公室牵头，市政府办公室、市监察局等部门配合）', '（八）提高行政执法质量。全面落实行政执法责任制，加强对行政执法的监督，建立科学、规范、文明、和谐执法的评价和奖惩机制。加强对公务员特别是行政执法人员的法律知识培训，提升依法行政的理念和能力。深入开展法制宣传和法律服务，增强市民自觉抵制违法行为的意识，形成学法、遵法、守法、用法的良好社会氛围。（市政府法制办公室牵头，市司法局等部门配合）', '（九）积极扶持企业提高市场竞争力。围绕特色产业、优势产业和发展潜力大的产业，适时举办专业性强的洽谈会、产品展销会等，帮助企业培育市场，扩大产品的影响力，把一些优特产品打造成为具有市场竞争力的品牌产品。坚持“自主创新、重点跨越、支撑发展、引领未来”的指导方针，扶持企业提高新产品研发能力和企业自主创新能力，加快引进、消化、吸收国内外先进技术，实现传统产业高级化和高新技术产业化，加快科技成果向现实生产力转化，不断提高企业发展质量和效益。（市工信委、市现代服务业发展局牵头，市发改委、市商务局、市科技局等部门配合）', '（十）加强企业研发中心建设。针对一些企业面临的“人才引不来、留不住”问题，以政府为主导，建设企业研发中心，为企业吸引高端人才、从事技术创新和研发创造条件。（市工信委牵头，市发改委、市现代服务业发展局、市商务局、市科技局、市人社局等部门配合）', '（十一）加强职业技术教育。根据企业发展需要，依托各类专业技术职业学院，为企业培养紧缺岗位专业人才，进一步提升企业的综合竞争力。（市人社局牵头，市工信委、市教育局、市科技局等部门配合）', '（十二）建立中小企业公共服务平台。整合中小企业服务机构、服务资源，为中小企业提供事务代理、法律咨询、劳动力信息、政策咨询、培训、融资担保、管理咨询、市场开拓等综合类服务及研发设计、检验检测、新技术推广、科技成果转化等专业技术服务。建立中小企业抽样调查统计制度，全面掌握全市中小企业基本情况，完善中小企业分类统计、监测、分析和发布制度，引导和扶持中小企业加快发展。通过政策引领、金融支持、产业集聚等方式，促进中小企业向科技型、专业型、服务型企业方向发展。支持中小企业上规模、上档次、创名牌、争市场，培育一批市场占有率高、质量效益好、示范带动作用强的中小企业，壮大经济规模，提高发展质量。（市工信委牵头，市发改委、市科技局、市司法局、市人社局、市财政局、市工商局、市质监局、市统计局等部门配合）', '（十三）加强行业商会协会建设。积极鼓励和支持企业组建行业商会协会组织，为政府与企业之间搭建桥梁和纽带。充分发挥行业商会协会在反映企业诉求、维护企业利益、处理企业纠纷、制定行业规范和标准等方面的作用，及时了解和解决企业遇到的问题，不断规范行业市场竞争行为。涉企主管部门要会同工商联、侨联、台联等与企业联系密切的组织，建立服务企业发展的联席会议制度、沟通联系制度，发挥各方面的优势，为企业发展提供良好服务。（市工信委牵头，市民政局、市现代服务业发展局、市商务局、市工商局等部门配合）', '（十四）大力支持重点产业项目发展。按照《中共大庆市委、大庆市人民政府关于支持重点产业项目发展的若干规定》（庆发〔2012〕11号）和《大庆市人民政府办公室关于印发落实市委市政府关于支持重点产业项目发展的若干规定工作方案的通知》（庆政办发〔2012〕60号）要求，各相关责任部门要抓好贯彻落实，认真组织实施，大力扶持新能源、新材料、节能环保、生物工程、电子信息、现代装备制造、服务外包、文化创意、现代物流、金融保险等战略性新兴产业项目发展，对符合条件的企业，在财政税费、土地使用、金融信贷、服务环境方面落实相关优惠政策，加快推进经济转型升级。（庆政办发〔2012〕60号文件所确定的各相关部门负责落实）', '（十五）落实好引进人才配套政策。认真落实《中共大庆市委、大庆市人民政府关于实施若干人才优惠政策的暂行规定》（庆发〔2010〕39号）等文件，落实好高端人才落户资金补贴、住房、配偶就业、子女入学等优惠政策，切实解决高端人才的后顾之忧。（市人社局会同市人才办牵头，市发改委、市工信委、市商务局、市城乡建设局、市财政局、市教育局、市科技局等部门配合）', '（十六）加强市内区域间经济合作。认真贯彻落实《中共大庆市委、大庆市人民政府关于进一步加强市内区域间经济合作的若干意见》（庆发〔2012〕9号）精神，最大限度地发挥资源配置优势，实行招商引资项目“异地落户”政策，把招商引资来的项目尽可能落到本行政区域内最具有比较优势的专业化特色产业园区，采取分税制等利益共享的方式，调整项目利益分配，打破地域限制，增强区域经济发展整体实力。（市发改委、市工信委、市商务局牵头，市科技局、市财政局、市地税局等部门配合）', '（十七）加强对各级领导干部和公务人员的业务培训。把提高各级领导干部和公务人员为企业服务的能力和水平纳入到各级党校和行政学院的培训计划，侧重经济发展趋势、产业政策、法律法规、加强行政管理与促进企业发展等主要方面，并设置相应培训课程，邀请有关专家、学者或企业家进行授课，切实提高各级政府部门及其公务人员依法行政的能力和为企业服务的本领。（市人社局会同市委组织部牵头，市发改委、市工信委、市政府法制办公室等部门配合）', '（十八）学习借鉴发达地区成功经验。以学习考察、挂职锻炼、短期培训等方式定期组织领导干部和承担监管、审批等职能的公务人员到经济发达地区学习，充分借鉴发达地区政府部门服务企业的理念和方法，增强服务意识，提高为企业服务的层次和水平。（市人社局会同市委组织部牵头，市政府有关部门配合）', '（十九）把涉企服务纳入政府绩效评估和目标责任制考核。科学设定考评指标，细化具体内容和标准，加大考核权重。加强对直接面向企业、面向基层的关键岗位的考核，增强领导干部和工作人员为企业服务的责任感。充分运用好考核结果，对优化经济发展环境工作成效显著的单位、部门和个人要进行表彰奖励；对存在问题较多、整改不力的单位和部门要予以通报批评或追究相关人员的责任。（市监察局会同市直机关工委牵头，市政府有关部门配合）', '（二十）开展经济发展环境满意度测评和企业评议政府活动。针对政府部门服务企业的工作效率、工作质量以及工作作风等方面，采取网络评议、问卷调查、社会第三方评估等方式，组织企业开展对政务、法制、市场、人文、生活、生态、安全、社会环境八个方面的满意度测评，及时了解和掌握工作中存在的薄弱方面和环节，提出解决问题的办法和措施。深入开展“万人评议机关作风和行业作风”活动，适当增加企业人员的比例，真正体现企业的合理诉求，及时了解企业发展中存在的困难和问题，提高服务意识和公仆意识，提高服务质量和水平，切实做到服务规范、执法文明、便民利企。（市监察局会同市文明办牵头，市工信委、市统计局等有关部门配合）', '（二十一）加大行政问责力度。认真落实《大庆市行政问责暂行办法》（市政府令2005年第2号）等规定，进一步拓展行政问责范围，加大对涉企违规行政行为的问责力度。在强化对故意刁难、以权谋私、乱作为等恶劣行为问责的基础上，对慵懒散、办事拖拉等不作为、慢作为行为也要加大问责力度，并采取责令限期整改、作出书面检查、公开道歉、通报批评、诫勉谈话等方式严肃处理。（市监察局牵头，市政府有关部门配合）', '（二十二）进一步加强行政效能投诉工作。利用“963777”效能投诉电话开展优化经济发展环境专项效能监察，对存在问题较多的地方和部门集中开展网上投诉、专项检查和明查暗访。开通外来投资企业投诉专线，建立重大项目市长、县（区）长联系信封制度，发挥经济发展环境监测点和监督员队伍的作用，不断拓宽和畅通投诉渠道，及时发现和解决经济发展环境方面存在的问题。（市监察局、市商务局牵头，市政府法制办公室、市政府办公室、市发改委、市工信委等部门配合）', '（二十三）严肃查处破坏经济发展环境的案件。严格落实《中共大庆市委办公室、大庆市人民政府办公室印发＜关于进一步优化经济发展环境“十禁止”规定＞的通知》（庆办发〔2008〕12号）等政策规定，加大对恶意拖欠企业资金、政策不兑现、刁难勒卡、滥用自由裁量权等破坏经济发展环境典型案件的查处力度，对情节严重、影响恶劣的案件要进行公开处理，为企业和投资者创造良好环境。（市监察局牵头，市商务局、市工信委、市发改委、市政府法制办公室等部门配合）', '（二十四）加强对优化经济发展环境工作的组织领导。定期研究经济发展环境建设工作，组织力量实施专题推进，切实解决影响经济发展环境的突出问题。建立发展环境监督改进机制和优化经济发展环境的长效机制，保障发展环境不断改善。（市监察局牵头，市政府有关部门配合）', '（二十五）强化舆论宣传。积极开展为企业服务“好窗口”和“标兵窗口”的创建活动，利用各种新闻传播媒介，宣传推广优化经济发展环境的好经验、好做法，公开曝光不作为、乱作为的行政行为和责任人，大力弘扬正气，坚决抵制歪风，营造广泛参与优化经济发展环境的良好舆论导向，努力形成人人关心环境、重视环境、维护环境的合力。（市文广新局会同市委宣传部牵头，市工信委、市商务局、市监察局等部门配合）', '（二十六）加强督查督办。把优化经济发展环境作为政府督查督办的一项重点工作，采取通知督办、询问检查、督促上报、跟踪核查、实地督查等方式，督促相关部门切实履行职责，整改有关问题，提升工作水平。（市政府督查室牵头，市政府有关部门配合）']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>61</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>大庆市卫计委大庆市卫生和计划生育委员会关于印发四零承诺服务创建实施方案的通知</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2018-05-24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100373/201805/c05_78934.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['【大庆市卫计委】大庆市卫生和计划生育委员会关于印发“四零”承诺服务创建实施方案的通知_部门文件_大庆市人民政府', '【大庆市卫计委】大庆市卫生和计划生育委员会关于印发“四零”承诺服务创建实施方案的通知', '委直属各单位，委机关各科室： 按照市作风整顿工作领导小组办公室《市直机关2018年度服务大厅及窗口岗位深入推进“四零”承诺服务创建工作实施方案》要求，制定了《大庆市卫计委“四零”承诺服务创建实施方案》,现印发给你们，请遵照执行。', '按照《市直机关2018年度服务大厅及窗口岗位深入推进“四零”承诺服务创建工作实施方案》要求，为进一步规范卫生计生窗口单位服务行为，转变工作作风，提高服务能力，提升服务质量，更好地为企事业单位和群众服务，现结合我委实际，制定本实施方案。 一、总体要求 全面贯彻落实市委关于在市直机关开展作风整顿和“四零”承诺服务创建的决策部署，严格按照“服务态度、服务语言、服务行为、服务效能、服务设施、服务纪律”六个规范和“服务受理零推诿、服务方式零距离、服务质量零差错、服务结果零投诉”的“四零”标准，在市卫生计生委派驻市行政服务中心开展“四零”承诺服务创建工作，加快推进实体大厅与网上大厅协同发展，逐步实现审批办理“零见面”，服务对象“零跑路”的审批服务新模式。 二、创建目标 （一）优质服务。以“转作风、转职能、转方式”为重点，进一步转变服务理念、规范服务行为，增强责任意识、服务意识和效能意识，努力打造卫生计生“高效便捷、务实为民”的示范窗口。 （二）精细管理。落实岗位责任、公开服务承诺、严格纪律管理、健全制度规范、强化考核监督，全面提升卫生计生服务质量和服务水平。 （三）效能提升。坚持“简程序、快审批、短时间、优服务”原则，进一步精简办事环节、压缩办理时限、再造服务流程，提升服务对象对服务环境、质量和结果的满意度。 （四）监督问责。强化监督措施，拓宽监督渠道，广泛接受内外监督，切实解决服务意识不强、服务能力不高、服务质量不优等问题，坚决杜绝不作为、慢作为、乱作为现象。 三、方法步骤 （一）学习先进经验阶段（2018年5月-6月） 根据创建工作要求，组织服务窗口岗位人员和负责与行政审批相关的委机关科室工作人员到国内优质服务领先地区深入考察学习，结合我市卫生计生行政服务工作实际，将最先进的经验做法和服务理念引入创建工作之中。 （二）制定实施方案标准阶段（2018年6月15日前） 结合学习考察成果，立足我市卫生计生工作实际，科学合理制定“四零”承诺服务创建工作实施方案和标准，确保行动有纲领、服务有标准、工作见成效，努力把服务窗口打造成为可学习、可借鉴、可复制、可操作的全市卫生计生行业服务榜样和服务标杆。 （三）组织实施阶段（2018年6月-8月） 1.优化行政服务窗口环境。提供办事指南、资料查询等服务内容，增设打复印机、扫描仪等服务设施，设置办事指示牌、桌椅笔纸等便民服务备品，增加雨具外借、免费环保袋等温馨服务项目，着力打造“进门舒适，办事舒心，离开满意”的服务窗口。 2.加快虚拟大厅建设。加快推动实体服务大厅与网上政务大厅融合，按照市政务服务大厅“互联网+政务服务”推进情况，加快卫计委数据信息与网上政务平台对接，实现审批数据共享，并安装政务服务办公APP客户端，使涉及工作的行政审批人员，能随时随地审阅和查看审批上报材料，及时推送相关审核信息，更好更快地为企业和服务对象服务。开设快递收发服务，申请人可以自行选择邮寄纸质申请材料和证照文书，逐步实现审批办理“零见面”、服务对象“零跑路”的审批服务新模式。采取办事进度短信提醒和黄牌、红牌警告措施，确保审批快速无超时。 3.简化再造服务流程。这是重要创建内容。对现有审批事项、审批流程进行再梳理、再确认，重点解决办事环节多、承诺时限长、申报材料繁、行政效率低等问题，进一步简化程序、精简材料、缩短时限、再造流程。推行审批与监管相分离，实行集中审批、分工监督，加强事中事后监管，打造分工明确、职能清晰、监管有力、高效运行的服务管理体系。 4.完善管理制度。着眼“优质服务、精细管理、效能提升、监督问责”，健全完善岗位责任制、首问责任制、服务承诺制、信息公开制、工作岗位AB岗制、一次性告知制、离岗告知制、考勤签到制、限时办理制、责任追究制等相关制度规定。 5.规范服务行为。按照“四零”承诺服务标准，从仪表举止、服务用语、服务态度、办公环境等方面，加快制定《着装和仪表规范》、《政务服务用语规范》、《政务服务行为规范》等服务规范。 6.提升服务能力。开展信息化知识与卫生专业技能岗位培训、提升专业化信息化服务水平，开展服务礼仪培训、展现良好服务形象，开展服务质量考核、强化约束管理，开展全方位全过程监控、进行即时满意度测评。 （四）面向社会公开评议阶段（2018年8月） 在市卫生计生委官网向社会做出“四零”服务公开承诺。面向企业、医疗机构和群众聘请社会监督员，征集意见建议，自觉接受监督。既要严格主动“自己查”，又要认真接受“群众提”，在及时发现、及时解决问题中不断完善和提升创建工作。 （五）总结推广经验阶段（2018年9月） 同步指导萨尔图区卫生计生局做好具体落实。积极总结创建经验，在全市卫生计生系统推广创建标准和典型经验，提升卫生计生系统总体服务质量和服务水平，让服务对象真正感受到卫生计生行业服务新风尚。 四、工作要求 （一）加强组织领导。成立市卫生计生委“四零”承诺服务创建领导小组，委主要领导担任组长，分管主任担任副组长，各有关科室负责人为成员。机关党委负责总体安排，法制监督科负责业务指导，负责行政审批职责的业务科室具体落实。 （二）严格工作标准。要严格落实“六个规范”的原则要求，严格执行“四零”承诺服务标准规范，严格推进六个阶段的方法步骤，确保做到引入最先进的经验做法、运用最先进的信息化技术手段。要始终坚持以问题为导向，从服务对象最急需着手，从小事细节抓起，进一步解决好“门难进、脸难看、事难办”、“不作为、慢作为、乱作为”等问题。 （三）强化监督检查。成立由机关党委、法制监督科有关人员组成的指导检查组，随时深入窗口单位，指导服务、督导检查、查找不足、解决问题。召开服务对象座谈会，了解需求，精准改进，有效提升服务效能。 （四）加强宣传引导。采取多种形式广泛宣传“四零”承诺服务活动的开展情况、经验做法、取得成效，营造良好创建氛围。注重发现、培育先进典型，充分发挥先进典型的引领带动作用。鼓励基层积极探索，将“四零”承诺服务创建向纵深推进。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>61</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>年大庆市工业和信息化委员会政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2013-03-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100461/201303/c05_77545.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['2012年大庆市工业和信息化委员会政府信息公开工作年度报告_市直部门信息公开年度报告_大庆市人民政府', '。我委高度重视政务公开工作，始终把推进政务公开工作作为规范行政行为，提高行政效率的有效举措，强化思想认识和责任意识，坚持把政务公开工作列入“一把手”工程，纳入重要议事日程、纳入党风廉政建设和依法行政工作之中。结合全委工作变动，及时调整充实政务公开工作领导小组机构，进一步明确责任落实主体，杜绝因工作变动出现政务公开工作推进空挡情况，保证了我委政务公开工作扎实有效开展。', '。为进一步规范政务公开工作，确保公开工作落到实处，我委按照市政务公开办的要求，并结合工作实际，细化完善', '了《大庆市工信委政务公开工作总体方案》，印发了《2012年政务公开工作要点》，确定了工作总体思路，提出了实施标准，明确了推进内容、形式、时限、职责和程序，建立了监督制度。在政务公开形式上，不仅利用政务公开传统形式栏目进行公开，还注重利用好网络、报刊、广播、电视等新闻媒体，逐步将政务公开工作推向深入。', '为切实推进政务公开工作，我们采取多种形式对政务公开工作进行检查、考核、评议。强化内部监督，定期或不定期对各科室政务公开工作进行检查，提出意见和建议，奖优罚劣。主动接受社会监督，完善投诉电话制度，指派专人接待和受理群众投诉，及时听取政务公开监督员的意见，对出现的问题随时纠正整改。同时，自觉接受市人大、市政协、各人民团体和新闻媒体的监督，扎实有效地推进政务公开各项工作。', '。我委按照公开透明的工作要求，紧紧围绕全市经济社会发展大局，进一步突出工业经济这条主线，确保了政务公开工作的科学性、实用性。', '。及时发布全市工业经济发展状况、涉及工业经济发展的重大战略部署和政策调整、企业生产经营情况、国内国外工作经济发展动向等重点内容。同时，全面公开工作职责、工作规则、服务承诺、违诺违纪的投诉途径、追究及处理等情况和机关中层干部竞争上岗、领导干部廉洁自律、干部述职述廉、单位财务收支、公务员年度考核、职工外出学习考察情况等内容。', '通过公开栏公开具有执法权工作人员的姓名、职务、职责等内容；通过报纸公开扶持园区建设优惠政策等内容；通过广播公开工业项目推进、园区建设、工业招商、为企业服务等内容；通过宣讲公开国家、省市鼓励支持经济发展优惠政策等内容；通过网络公开工作动态、财务支出等内容；通过会议公开工作安排等内容；通过印发文件公开工业经济发展情况等内容。', '我委无依申请公开政府信息和不予公开政府信息的情况，我委公开信息即为正常范围内所需公开内容。', '我委2012年度发生针对本部门有关政府信息公开事务的行政复议案0件，发生针对本部门有关政府信息公开事务的行政诉讼案0件。此外，我委未收到各类针对本部门政府信息公开事务有关的申诉案（包括信访、举控）。', '一年来，在市政务公开领导小组的正确领导下，在社会各界的广泛监督下，通过全委的不懈努力，政务公开工作取得了一些成绩，但是与市里的要求，群众的期望还有一定差距，还存在一些不足。主要表现在：对开展政务公开工作的认识理解还不够深刻，工作开展力度还需进一步加大等等，这些问题将在今后的工作中认真加以解决。下一步，我们将继续按照市委、市政府的工作部署，按照市政务公开的工作要求，结合我委工作实际，进一步深化思想认识、强化组织领导、完善工作机制、拓宽公开内容、规范公开程序、创新公开手段、增强公开实效，努力推动我委政务公开工作再上新水平，再登新台阶，为加快建设现代化国际化城市提供良好保障。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>61</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>大庆市人民政府办公室关于印发大庆市人民政府重要事报告制度的通知</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2006-06-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100372/200606/c05_75874.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['大庆市人民政府办公室关于印发大庆市人民政府重要事报告制度的通知_庆政办发_大庆市人民政府', '各县、区人民政府，各中、省直单位，市政府各直属单位： 经2006年6月5日市政府第六次常务会议讨论通过，现将《大庆市人民政府重要事项报告制度》印发给你们，请遵照执行。', '第一条 为确保使市政府领导及时准确了解和掌握我市发生的重要事项，畅通信息渠道，规范报告程序，提升应对突发事件的快速反应和指挥能力，维护人民群众生命财产安全，参照有关规定，建立重要事项报告制度。 第二条 本制度适用于发生在我市行政区域内的突发公共事件、群体性上访等重大事项和重要接待、请假等事项的报告。 第三条 突发公共事件报告事项包括自然灾害、事故灾难、公共卫生事件、社会安全事件以及其他影响社会稳定、危害人民生命财产安全的有关事件。 （一）自然灾害：地震、较重洪涝、暴风雨雪、旱灾、森林火灾、草原火灾、冰雹、农作物病虫害、重大地质灾害等； （二）事故灾难：重大安全生产事故、亡3人（含3人）以 上的交通事故、重大火灾事故、对环境造成严重污染的事故以及其它社会影响较大的事故等； （三）公共卫生事件：重大流行性疾病疫情、流行性动物疾 病疫情、群体性食物中毒事件、影响较大的医疗事故等； （四）社会安全事件：恐怖袭击事件、影响较大的治安刑事案件、与群众生活密切相关的城市供水、供热、供电、供气、排水、公共交通、通讯、广播电视等方面发生的重大事故等； 第四条 群体性上访报告事项包括到市政府和政府部门进行的群体性上访，以及影响较大的到省进京上访。 第五条 重要接待报告事项包括国家、省部级、地厅级领导来大庆视察、检查工作及重要外宾来访等。 第六条 请假报告事项包括市政府副秘书长以上领导同志，各县、区、开发区行政主要领导，政府部门（包括市政府直属单位）主要负责人离市外出或出国学习考察等。 第七条 按照职责分工，对突发公共事件的报告进行责任划分： （一）市地震局负责地震情况的报告； （二）市水务局负责洪涝灾害、大型水利设施事故、城市供水事故的报告； （三）市林业局负责森林火灾、草原火灾的报告； （四）市气象局负责气象灾害的报告； （五）市农业委员会负责农作物病虫害等农业灾害的报告； （六）市国土资源局负责地质灾害的报告； （七）市安全生产监督管理局负责安全生产事故、交通事故和消防安全等事故的报告； （八）市环境保护局负责环境污染事故的报告； （九）市卫生局负责流行性疾病疫情、群体性食物中毒事件、影响较大的医疗事故的报告； （十）市畜牧水产局负责流行性动物疾病疫情的报告； （十一）市公安局负责恐怖袭击事件、治安和刑事案件的报告； （十二）市城市管理行政执法局负责城市供热、供气、排水事故的报告； （十三）市经济委员会负责城市供电事故的报告； （十四）市交通局负责城市公共交通事故的报告； （十五）市信息产业局负责城市通讯事故的报告； （十六）市广播电视局负责广播电视事故的报告； （十七）其他方面的报告，由相关责任部门、单位负责报告。 第八条 市信访办公室负责群体性上访和到省进京上访的报告。 第九条 市接待办公室、市政府办公室、接待对口部门和单位负责重要接待的报告。 第十条 各报告责任部门要在第一时间内简明扼要报告事项情况，可根据事态发展及时进行续报，并视情况及需要形成书面报告。对于迟报、漏报、瞒报、误报造成严重后果的直接责任人和相关负责人，将按照相关规定追究责任。 第十一条 由市政府总值班室受理报告，紧急情况可直接向有关领导汇报。 第十二条 副市长、市政府秘书长离市外出或出国考察应向市长请假(市长外出期间应向常务副市长请假)；市长助理、副秘书长、政府各部门（包括直属单位）主要负责人离市外出或出国考察应向其协助工作的副市长或分管副市长请假；各县、区、大庆高新技术产业开发区行政主要领导离市外出或出国考察应向市长请假(市长外出期间应向常务副市长请假)；外出领导应将外出时间、地点、联系方式通知市政府办公室，以便联络。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>61</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>大庆市人民政府办公室关于印发大庆市年度依法行政工作安排意见的通知</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2008-06-19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100372/200806/c05_76587.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['大庆市人民政府办公室关于印发大庆市2008年度依法行政工作安排意见的通知_庆政办发_大庆市人民政府', '各县、区人民政府，各中、省直单位，市政府各直属单位： 经市政府领导同意，现将《大庆市2008年度依法行政工作安排意见》印发给你们，请遵照执行。', '2008年我市的依法行政工作，要以邓小平理论、“三个代表”重要思想和党的十七大精神为指导，以科学发展观为统领，认真贯彻全省依法行政工作会议精神，紧紧围绕市委、市政府的中心工作，面向经济发展、立足社会稳定，不断推进法治政府和服务政府建设，依法行政的各个方面和各个环节要更直接地为经济发展和社会稳定服务。主要任务是：转变政府职能，提高行政绩效，规范行政行为，强化执法监督，优化发展环境，为我市经济社会又好又快发展做出新的贡献。 一、深化行政管理体制改革，推进管理机制创新 （一）认真领会国务院“大部制”改革的基本精神，根据上级的具体安排开展机构改革工作。编制管理部门今年要清理议事协调机构，减少乃至取消不必要的议事协调机构，年底将清理结果报上一级政府。 （二）将行政权力清理工作制度化，建立长效机制。在原来行政权力清理基础上，结合新颁布、修改、废止的法律、法规、规章和国务院、省政府决定，对各级政府和部门发生变化的行政执法权力适时调整并向社会公告。 （三）完善行政决策机制，确保行政决策科学化、民主化和法治化。各级政府要认真执行政府工作规则，充分发挥决策咨询机构的作用。法制部门要提高法律论证能力，审核本级政府拟发布的规范性文件、各类会议纪要和政府签订的各类合同。不经法制机构合法性审查的行政决策不得实施。 （四）规范行政处罚自由裁量权。各部门年底前要对所有存在自由裁量空间的行政处罚行为制定细化的标准和条件，完善实施的制度和程序，规范行政处罚行为。 （五）把行政许可尤其是涉及多个部门的许可事项、公共服务等与群众利益密切相关的事项纳入行政服务中心统一管理，公开办理。今年开展“优化工作流程，提高行政效能”活动。优化行政工作运行流程，实行并联审批制度，建立健全岗位责任、服务承诺、首问负责、政务公开、一门受理、首席代表、限时办结、绩效考核、投诉举报、责任追究等项制度。 （六）认真贯彻《中华人民共和国政府信息公开条例》（国务院令第492号）和《黑龙江省政府信息公开规定》（省政府令2005年第7号），各级政务公开办要对本地方、本部门现有的政府信息公开规定进行清理、修改和完善，并对本机关的政府信息进行整理，编制和修订公开指南和公开目录并在政务信息公开网站上免费提供。完善政府信息发布制度和程序。 二、加强规范性文件制定工作，提高制度建设质量 （七）减少规范性文件出台。要以加强政府自身建设、为经济建设提供优良的政策环境和保障政府重要工作为重点考虑规范性文件制发工作。对于违法设定许可、处罚的文件，简单重复上级规定的文件和不必要提高发文级次的文件一律不发。 （八）要加大规范性文件发布前的调查研究和协调工作力度。文件起草和修改过程中，要广泛听取各界意见，加强与有关方面的协调，使政府出台的规范性、政策性文件符合我市的实际情况，适应我市经济社会发展的需要，具有科学性、民主性、合法性和可操作性，做到规范性文件不必要的不发布，不成熟的不发布，不经法律论证的不发布。 （九）建立定期和不定期相结合的规范性文件清理制度。按照法律、法规、规章立、改、废的情况，随时决定我市有关文件的废止。每年末定期对原有效的规范性文件清理一次，对不能适应新形势要求的文件进行修改或废止。清理后要向社会公布继续有效、废止和失效的规范性文件目录。 三、加大行政执法监督力度，规范行政执法行为 （十）严格执行规范性文件的上报备案审查制度，做到有件必备、有备必审、有错必纠。法制部门要每半年对规范性文件存在的问题进行分析，提出报告。每年初要对本级政府上年度的备案情况进行一次通报，并将通报情况纳入目标责任制考核当中。 （十一）修订市政府行政执法责任制考核目标，健全考核的各项制度和方法。行政执法部门内部要严格执行行政执法责任制，至少每季度对执法机构、岗位和执法人员考核一次，考核评议不走过场、不搞形式，所有考核内容都要记入执法人员考核档案。没有考核档案或没有记入档案的，按没有考核处理。本年度组织一次行政执法责任制观摩学习活动，介绍和推行行政执法责任制先进单位的经验和做法，以点带面，推动行政执法责任制的深入开展。 （十二）积极主动开展执法监督。在规范地开展规范性文件、重大行政处罚备案和行政违法案件举报受理等日常监督的同时，积极围绕改善发展环境和民生问题开展个案监督。以哈大齐工业走廊、重要经济项目和百姓切身利益问题为重点，积极明查暗访，加大主动监督力度。法制、监察、审计、新闻媒体协同配合，严肃查办、曝光和处理一批破坏经济发展环境、影响政府形象、损害人民利益的案件，严肃追究违法人员的责任。 （十三）按照省政府安排，完成行政执法证件和行政监督证件的换发工作，保证行政执法人员和行政执法监督人员持证执法、持证监督。 （十四）清理临时工、合同工执法。 （十五）建立行政执法案件登记备案工作制度。年内各部门都要按要求建立行政许可、行政处罚、行政征收、行政强制等行政执法行为登记台账，每季度向本级政府法制机构上报。行政执法案件登记备案工作情况纳入行政执法责任制考核。 四、加强行政复议能力建设，提高行政复议工作水平 （十六）认真贯彻《中华人民共和国行政复议法实施条例》（国务院令第499号）。各县（区）、各部门要通过各种途径、各种方式，采取有力措施，积极做好该条例的宣传培训工作，全面提高行政复议人员的业务能力和水平。完成行政复议人员资格证件的发放工作。 （十七）进一步完善行政复议办案程序。各县（区）、各部门要进一步完善行政复议办案程序和相关制度，抓紧制定行政复议案件听证制度、调查取证制度、办理时限制度等程序性规定，不断提高行政复议办案质量。 （十八）加强行政复议机构队伍建设。各县（区）、各部门要严格执行《黑龙江省行政复议案件听证审查规定》（省政府令2006年第1号），进一步配备、调剂、充实行政复议人员，确保听证审查合议庭能够有效运作，切实发挥作用。按照省政府行政复议机制改革试点工作的要求，探索成立行政复议委员会有关事宜。 五、加强政府法制培训和宣传工作，提高依法行政能力和水平 （十九）制定《2008年度政府法制培训要点》，对全市政府法制培训工作做出规划和安排，确定培训的重点内容和重点对象，明确工作措施和具体要求。培训、测试情况要记入执法档案。 （二十）抓好行政执法人员岗前培训，经综合法律、专业法律知识培训并考试合格后方可上岗。 （二十一）抓好新颁布法律法规的学习宣传，今年重点宣传的综合法是《中华人民共和国行政复议法实施条例》（国务院令第499号），提高依法化解社会矛盾的能力。 （二十二）各县（区）政府在本年度内至少要组织两次依法行政法律知识讲座，市级各部门至少要组织一次依法行政法律知识讲座。 （二十三）按照省里确定的重点培训领域，抓好城市管理、安全监察、国土资源、民政、公安、卫生、物价、商务（酒类管理和畜禽屠宰）等重点部门的行政执法人员的综合法律知识培训和专业法律知识培训，合理规划培训时间，科学设置培训内容，确保培训工作取得实效。 （二十四）加强与司法部门、新闻媒体的协同配合，及时宣传新颁布的法律、法规、规章和本级政府推进依法行政新举措、新经验，形成宣传合力，增强宣传效果。 （二十五）抓好“关注民生热点，规范执法行为，推进法治政府建设”为主题的法制宣传活动，认真做好“12•4”全国法制宣传日各项工作。 六、推进基层依法行政，加快法治政府建设进程 （二十六）进一步加强对县级政府依法行政工作的指导力度，在深入调研的基础上，有针对性地研究提出推进县级政府依法行政的具体措施，并做好组织落实工作。 （二十七）把《国务院关于印发全面推进依法行政实施纲要的通知》（国发〔2004〕10号）和《黑龙江省人民政府关于加强县级政府依法行政工作的决定》（黑政发〔2006〕23号）贯彻落实情况列为依法行政考核的主要内容，结合行政执法责任制一并考核。 （二十八）按省政府要求，开展依法行政达标单位创建活动。有关部门要制定评选标准，确定评选程序，每年在各级政府和部门中评选一定比例的达标单位，争取在2014年之前，将全市各级行政机关均纳入达标单位中。在此基础上，进一步推进依法行政工作，实现十年建设法治政府的目标。 （二十九）年内适时组织依法行政示范县经验交流和学习考察活动。 （三十）各县（区）政府要按照《黑龙江省人民政府关于加强县级政府依法行政工作的决定》（黑政发〔2006〕23号）和《黑龙江省机构编制委员会关于市（地）县（市）政府（行署）法制工作机构和人员编制调整的通知》（黑编发〔2004〕33号）文件的要求，积极落实政府法制机构规格和人员编制，提高政府法制机构工作人员素质，以适应政府法制工作需要。此项工作落实情况纳入本年度目标责任制考核之中。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>61</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>中共大庆市国防动员办公室党组关于巡察整改阶段进展情况的通报</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100375/202308/c05_310188.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['巡察组向市国动办党组反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改阶段进展情况予以公布。', '巡察反馈会议后，市国动办党组高度重视，第一时间召开专题会议研究部署整改工作，将巡察反馈问题整改作为当前重要的政治任务和头等大事，压实主体责任，发扬斗争精神，敢于较真碰硬，确保条条都整改、件件都落实。先后召开', '次巡察整改专题民主生活会，组织学习领会习近平总书记关于巡视工作的重要论述特别是关于人防工作的重要讲话以及省市委关于巡视巡察工作的指示批示精神；坚持学思践悟，深入反思问题原因、准确把握问题症结、深刻剖析思想根源、专题研究具体措施，科学细致制定整改方案，做到反馈问题全面认领、对号入座、责任到人，层层传导压力，进一步把全体党员干部职工的思想统一到市委巡察的要求上来，不断增强做好巡察整改工作的思想自觉和行动自觉。', '为切实履行办党组整改工作主体责任，成立了由市国动办党组书记、主任任组长，其他班子成员为副组长、机关科室和直属中心负责人为成员的巡察反馈问题整改领导小组，下设', '坚持履行第一责任人责任，以上率下、靠前指挥，亲自部署、参与、督办巡察整改工作；其他班子成员严格落实', '，坚持从本人改起，从分管工作抓起，各领一路带头推进整改任务落实。全办上下分兵把口，形成了党组书记统筹抓总、周密部署、带头整改，班子成员分工负责、深入研究、多路推进，相关责任科室和直属中心对号入座、协同联动、合力落实整改任务的强大合力。', '为扎实做好整改工作，市国动办召开专题会议，研究制定反馈问题整改工作方案以及选人用人、保密工作两个专项整改方案，形成问题、任务、责任三个清单和整改推进台账，对标对表、逐条梳理，将全部问题分解落实到责任科室中心、落实到岗位、落实到人头，细化具体措施、整改时限，确保整改工作行有方向、干有抓手、赶有目标。建立问题整改推进机制，实行周调度制度，先后召开巡察反馈整改工作领导小组办公室和专项组专题推进会议', '余次，倒排工期、挂图作战、节点推进、集中攻坚、跟踪督办，全力推动问题整改工作事事有人管、周周有进展、月月见成效，不折不扣抓好整改落实。', '的原则，由专项组强力推进问题整改形成档案，经分管领导审核把关并提交领导小组办公室会议审议后，报党组会挂账销号，逐级签字确认，确保问题整改形成闭环。集中整改期间，组织开展', '活动，围绕人防工程建设管理、人事档案、财务管理、保密管理等多发易发问题的重点领域和关键环节，抽调专人集中研究，建立完善一系列制度及办法', '次，进一步补齐短板弱项，堵塞工作漏洞，固化整改成果，跟踪督办问效，确保整改问题不反弹，有效保证了整改工作落到实处。', '制度，利用党组会、理论学习中心组及研究剖析会议等学习习近平总书记重要讲话精神和重要指示批示精神', '天的学习贯彻党的二十大精神专题读书研讨培训班，采取专题辅导、视频讲座、自主学习、集中研讨、成果交流、理论测试等方式，对全体党员干部职工开展多形式、分层次、全覆盖式的学习培训，累计发言', '加强顶层设计编制人防工程建设专项规划。截至目前，编制完成人民防空工程建设专项规划（', '位专家进行了评审，组织编制单位将根据各单位提出的意见建议和专家评审情况作进一步修改完善。人防工程建设专项规划已提交政府规委会审议获得通过，下一步将按程序完成报批手续。二是按照', '原则进行审批，逐步提升全市人防工程建筑面积总量，提高人均防护面积，缩小我市与国家确定的人均防护面积标准差距。三是制定《人防工程质量监督检查事中事后监管制度》，进一步监督指导建设单位及时完成结建任务。', '）人防工程平战结合利用率偏低。整改措施：一是在全市国动系统开展人防工程维护管理业务培训，提高县（区）国防动员部门工程维护管理水平，做好人防工程平战结合利用的宣传工作。二是协调各县（区）国动部门，积极盘活闲置和利用率较低的人防工程，通过自用、租赁等方式，改善经营条件，提高竞争优势，促进人防工程用于各类商业经营。三是梳理全市人防工程使用主体现状，形成《大庆市人防工程设备设施维护管理调研报告》，针对现阶段人防工程维护管理工作面临的问题提出对策建议。四是制定《人防工程使用维护管理', '处人防工程开展设备设施维护管理和车位租赁情况监督检查，针对问题实行台账管理，明确整改期限和整改措施，确保隐患整改到位。五是指导各县（区）开展提升人防工程平战结合利用率试点工作。现已征集确定大悦城', '）人防专业队伍数量不足。整改措施：一是结合全市现有人防专业队伍种类、人数、组建单位和分布等情况，深入大庆油田公司、大庆石化公司、大庆炼化公司就人防专业队伍扩编问题进行调研。二是与市住建局、市城管局、市卫健委、市应急局、市疾控中心、市消防救援支队、市委网信办、市公安局、市生态环境局和市通信管理办公室等单位对接，调查摸清全市从事抢险、治安、医疗、通信、交通、防化、消防、网络安全以及心理咨询等各类职业从业人员底数。三是已初步完成对市、县（区）两级和重要经济目标单位人防专业队组建人数配比调整，以大庆市国防动员委员会联合办公室名义向各专业队伍组建牵头单位及各县（区）国防动员委员会联合办公室正式印发《关于开展大庆市人民防空专业队伍整组工作的通知》，组织开展我市人防专业队伍整组工作。', '日召开意识形态工作领导小组会议，传达学习《大庆市意识形态领域负面清单（试用）》，组织各党支部对照负面清单总结', '日召开党组会研究意识形态工作，向领导干部传达学习《大庆市意识形态领域负面清单（试用）》，进一步绷紧意识形态安全这根弦。三是', '日组织召开理论学习中心组会议，传达学习习近平总书记关于意识形态重要论述，进一步统一思想、凝聚共识。', '年第一次意识形态工作领导小组会议，传达学习《大庆市意识形态领域负面清单（试用）》，通报', '日召开党组会研究意识形态工作，传达学习《大庆市意识形态领域负面清单（试用）》，研究通过']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>61</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>大庆市人民政府规章制定办法</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100362/202111/c05_75148.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['为了规范市人民政府规章制定工作，推进科学立法、民主立法、依法立法，提高政府规章质量，根据《中华人民共和国立法法》《规章制定程序条例》《黑龙江省政府规章制定办法》《大庆市人民代表大会及其常务委员会立法条例》等有关法律规定，结合实际，制定本办法。', '制定政府规章应当遵循《中华人民共和国立法法》确定的立法原则，维护法制统一，应当从本市实际出发，突出地方特色，解决实际问题。', '制定政府规章时，对上位法已经明确规定的内容，一般不作重复性规定；不得对上位法内容作出变更性规定。', '没有法律、行政法规、地方性法规的依据，政府规章不得设定减损公民、法人和其他组织权利或者增加其义务的规范。', '政府规章制定工作应当坚持中国共产党的领导，落实中国共产党领导立法工作制度。涉及重大体制和重大政策调整的，应当按照有关规定报市委讨论决定。', '市人民政府及所属有关部门（含所属机构，下同）应当推进立法工作机构和队伍建设，提高立法工作能力。', '市人民政府应当根据本市经济社会发展的实际需要制定年度政府规章制定工作计划，明确政府规章项目名称、起草单位，统筹安排政府规章制定工作。', '县（区）人民政府、市人民政府所属有关部门经调研论证认为需要制定政府规章的，应当于每年7月31日前报请市人民政府在下一年度予以立项。', '县（区）人民政府、市人民政府所属有关部门经调研论证认为需要制定政府规章的，应当于每年', '本办法第九条规定以外的单位和个人认为需要制定政府规章的，可以向市人民政府法制机构提出立法建议，并说明项目名称和制定的必要性，同时提供建议单位或者个人的基本信息和联系方式。', '对前款的立法建议，市人民政府法制机构可以转交有关部门进行研究，有关部门研究后认为需要制定政府规章的，应当报请立项。', '市人民政府法制机构应当于每年7月31日前向县（区）人民政府、市人民政府所属有关部门征集下一年度政府规章建议项目，也可以通过网站、报刊等媒体向社会公开征集政府规章建议项目。', '县（区）人民政府、市人民政府所属有关部门报请规章立项的，立项申请应当经单位主要负责人组织集体讨论后，以正式文件形式报市人民政府，径送市人民政府法制机构。', '立项评估、调研、专家论证、征求意见所形成的资料和立项所依据、参考的有关法律、法规、规章、文件等资料汇编，随立项申请一并报送。', '市人民政府法制机构收到规章立项申请后，应当与有关部门进行协商，组织专家进行研究、论证，并召开会议进行集体讨论。', '（二）拟解决的主要问题已经通过其他法律、行政法规、地方性法规、规章解决，或者可以通过制定政府规章以外的方式解决的；', '市人民政府法制机构应当及时了解起草单位实施年度政府规章制定工作计划的情况，并做好组织、督促、指导工作。', '年度政府规章制定工作计划在实施过程中，因特殊情况需要调整的，起草单位或者有关部门应当向市人民政府法制机构提出书面意见，市人民政府法制机构研究、论证后，报市人民政府审定。', '政府规章由报请立项部门或者市人民政府确定的部门起草。涉及多部门职责的，由市人民政府确定一个部门或者几个部门负责起草工作。', '委托起草的，起草单位应当与受委托方签订委托起草协议，明确委托任务、权利义务、质量要求、完成期限、委托费用、违约责任等内容。', '起草单位应当对起草质量负责。起草政府规章应当符合本地实际，能够解决拟规范领域中存在的突出问题，不得照抄照搬。', '起草单位应当成立起草工作小组，制定起草工作计划，保障起草工作条件，与市人民政府法制机构协商确定拟提请市人民政府审议的时限，并确保按照时限要求完成起草工作。', '起草单位不能如期完成起草工作的，应当向市人民政府法制机构作出书面说明，由市人民政府法制机构按照本办法第十九条规定办理。', '起草小组的组长由起草单位负责人担任，多个部门负责起草的，组长由牵头单位负责人担任。起草小组成员主要由起草单位人员组成，起草单位根据需要可以协商有关部门派人作为起草小组成员。', '起草单位可以邀请有关专家、人大代表、政协委员、教学科研单位、社会组织和社会公众参与起草工作。', '起草政府规章涉及其他部门职能的，有关部门应当配合做好起草工作。发生分歧且经协商未能达成一致的，起草单位可以提请市人民政府予以协调。', '（六）符合行政机关的职权与责任相统一的要求，在赋予有关行政机关必要的职权的同时，应当规定其行使职权的条件、程序和应当承担的责任；', '（七）在规定行政管理相对人权利时，应当明确保障权利实现的途径；在规定其义务时，应当明确不履行义务的法律后果；', '起草政府规章应当开展调查研究，掌握实际情况，总结实践经验，可以借鉴外地市立法经验。', '调查研究可以采取座谈走访、问卷调查、抽样调查、查阅资料等多种形式，调查对象应当具有广泛性和代表性，调查研究结论应当有数据支撑。', '起草政府规章应当征求县（区）人民政府、本系统基层单位、相关市级部门、行政管理相对人、人大代表、政协委员、民主党派、有关社会组织等方面意见。', '起草政府规章应当将规章草案向社会公布，征求意见。向社会公布征求意见的期限一般不少于30日。征求意见的情况可以向社会通报。', '起草政府规章应当将规章草案向社会公布，征求意见。向社会公布征求意见的期限一般不少于', '政府规章内容涉及市人民政府其他部门的职责或者与其他部门关系紧密的，起草单位应当征求其他部门的意见。有分歧意见的，应当组织协调；协调后仍不能取得一致意见的，应当在上报政府规章送审稿时说明情况和各方理由。', '听证会应当制作笔录，如实记录发言人的主要观点和理由。起草单位应当认真研究听证会反映的各种意见，在报送审查送审稿时，应当说明对听证会意见的采纳情况及其理由。', '政府规章制定中涉及重大利益调整的，起草单位应当组织有关部门、高等院校、科研单位、社会组织以及有关专家进行论证和咨询。', '起草政府规章涉及市场主体经济活动的，起草单位应当按照国家和省有关规定履行公平竞争审查程序。', '起草单位应当根据调查研究、征求意见、分歧意见协调、论证咨询等情况形成政府规章送审稿，由其负责法制工作的机构对送审稿进行合法性审查，形成审查意见。', '起草单位主要负责人应当组织召开会议对送审稿进行集体讨论，由负责牵头起草的内设机构进行汇报，负责法制工作的机构提交合法性审查意见。', '送审稿由起草单位主要负责人签署，报送市人民政府审查，几个起草单位共同起草的，应当由起草单位主要负责人共同签署。', '起草单位应当形成报送审查规章草案的报告，以正式文件形式径送市政府法制机构，并将下列书面材料作为文件附件：', '（一）起草情况说明，包括制定政府规章的必要性、可行性、起草过程、规范的主要内容以及其他需要说明的问题；', '报送审查时，调查研究、征求意见、公平竞争审查、分歧意见协调、论证咨询所形成的资料和起草所依据、参考的有关法律、法规、规章、文件等资料汇编一并报送。', '对当年计划完成的政府规章项目，起草单位应当于6月底前完成起草工作并报送审查，起草单位报送审查与提请市人民政府审议的间隔时间原则上不得少于6个月。', '送审稿及材料不符合本规定第三十六条、第三十七条规定的，起草单位应当按照市人民政府法制机构的要求补齐、补正或者重新办理。', '（三）设定减损公民、法人和其他组织合法权益或者增加其义务的规范，是否有法律、法规依据；', '市人民政府法制机构认为送审稿存在问题的，可以根据实际情况决定暂缓审查、要求起草单位修改或者重新起草，并以书面形式说明理由，提出工作建议和时限要求。', '市人民政府法制机构应当就政府规章送审稿征求县（区）人民政府、市人民政府有关部门，以及民主党派、工商联、人民团体、社会组织、人大代表、政协委员、无党派人士的意见，同时向社会公布征求社会公众的意见，向社会公布征求意见的期限一般不少于30日。', '市人民政府法制机构应当就政府规章送审稿征求县（区）人民政府、市人民政府有关部门，以及民主党派、工商联、人民团体、社会组织、人大代表、政协委员、无党派人士的意见，同时向社会公布征求社会公众的意见，向社会公布征求意见的期限一般不少于', '收到征求意见的有关单位和个人，应当认真研究，按照规定的时限书面反馈意见。县（区）人民政府、市人民政府有关部门的反馈意见应当加盖单位印章并由主要负责人签字。', '有关个人和县（区）人民政府、市人民政府有关部门以外的单位逾期未反馈意见的，视为没有不同意见。', '市人民政府法制机构应当建立基层立法联系点制度，在审查送审稿时，应当根据立法项目的实际情况征求有关基层立法联系点意见。有关基层立法联系点应当按照规定的时限书面反馈意见。', '市人民政府法制机构应当建立征求意见采纳情况反馈机制，采取网络、电话、信函等适当方式对社会各界所提意见的采纳情况予以反馈。', '市人民政府法制机构应当对送审稿中涉及的主要问题开展调查研究，听取有关机关、组织和公民的意见。', '市人民政府法制机构可以根据需要开展省内外学习考察，借鉴成熟经验。考察地点应当选择已制定或者正在制定相关政府规章的直辖市、设区的市或者自治州。', '开展调查研究、考察学习时，可以要求起草单位、政府有关部门派人参加，可以邀请高校学者、有关专家参与。', '审查送审稿时，应当组织有关专家进行论证。专家论证意见应当作为修改送审稿的重要参考。', '经协调不能取得一致意见的，可以报请市人民政府有关分管领导组织协调，仍存在重大分歧意见的，市人民政府法制机构应当在审查意见中予以说明，提请市人民政府研究决定。', '对于部门间争议较大的重要政府规章制定事项，经市人民政府同意，市人民政府法制机构可以委托高等院校、科研单位、社会组织等第三方机构进行评估，由第三方机构提出评估意见。', '评估结束后，市人民政府法制机构应当再次组织协调，仍不能达成一致的，可以报请市人民政府有关分管领导组织协调，仍存在重大分歧意见的，提请市人民政府研究决定。', '市人民政府法制机构应当根据审查、调查研究、咨询论证、征求意见等情况，会同起草单位对送审稿进行修改，并将修改后的送审稿发送县（区）人民政府、市人民政府有关部门征求意见。', '县（区）人民政府和市人民政府有关部门的反馈意见应当加盖单位印章。没有不同意见的，应当书面反馈并由主要负责人签字。', '市人民政府法制机构负责人应当组织召开会议对送审稿进行集体审查。起草单位应当列席会议。', '送审稿审查工作结束后，市人民政府法制机构应当形成修改审查报告，起草单位应当形成政府规章草案及其起草说明。', '起草单位将政府规章草案及其起草说明报市人民政府有关分管领导审定同意后，按照程序提请市人民政府常务会议或者全体会议审议。', '市人民政府会议审议政府规章草案时，由起草单位向会议作说明，市人民政府法制机构应当提交修改审查报告。', '参会人员提出审议意见的，应当针对政府规章草案的具体条款进行，审议意见应当具体、明确。', '市人民政府审议通过的政府规章草案，按照市人民政府公文管理程序，由市长签署后，以政府令形式公布。', '公布规章的命令应当载明制定机关、序号、规章名称、通过日期、施行日期、市长署名以及公布日期。', '市人民政府规章应当自公布之日起30日后施行；但是，涉及公共安全、情况紧急以及公布后不立即施行将有碍规章施行的，可以自公布之日起施行。', '市人民政府应当根据政府规章的制定、修改、废止、解释情况及时对政府规章目录和文本作出调整，实现动态化、信息化管理。', '市人民政府规章自公布之日起30日内，由市人民政府向国务院、省人民代表大会常务委员会、省人民政府和市人民代表大会常务委员会备案。', '国家机关、社会团体、企业事业组织以及公民认为市人民政府规章同法律、法规相抵触或者违反其他上位法规定的，可以按照有关规定向国务院、省人民代表大会常务委员会、市人民代表大会常务委员会或者省人民政府提出审查建议。', '需要对政府规章进行解释的，由起草单位或者有关实施部门向市人民政府法制机构提出，双方研究形成解释意见后，报请市人民政府批准。规章的解释应当向社会公布。', '涉及公民、法人或者其他组织重大利益、对经济社会发展有重大影响或者多个部门负责实施以及规范政府共同行为的政府规章，可以由市人民政府法制机构组织有关部门开展评估。', '评估工作应当采取书面征求意见、实地调查、问卷调查、专家论证等形式，对政府规章的立法质量、实施效果、存在问题以及影响等进行调查和评价。', '评估工作结束后应当形成立法后评估报告，提出继续实施、修改或者废止的建议，并向市人民政府报告。', '市人民政府应当及时组织起草单位或者有关实施部门对政府规章进行清理，并将清理结果向社会公布。', '市人民政府规章有下列情形之一的，起草单位或者有关实施机关应当向市人民政府法制机构提出修改、废止的建议，市人民政府法制机构研究、论证后，向市人民政府提出修改、废止的意见：', '政府规章要求县（区）人民政府、市人民政府有关部门对专门事项作出配套的具体规定的，县（区）人民政府、市人民政府有关部门应当自该政府规章施行之日起1年内作出规定，政府规章对配套的具体规定制定期限另有规定的，适用其规定。', '政府规章要求县（区）人民政府、市人民政府有关部门对专门事项作出配套的具体规定的，县（区）人民政府、市人民政府有关部门应当自该政府规章施行之日起', '邀请、组织、委托有关专家学者、律师、高等院校、科研单位、社会组织等第三方为政府规章制定工作提供法律服务的，可以按照国家和省有关规定采取政府购买服务的方式进行。', '由市人民政府提请市人民代表大会及其常务委员会审议的地方性法规草案的立项、起草、审查、讨论等工作，参照本办法执行。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>61</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市委常委会召开会议李世峰主持并讲话</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100316/202307/c05_307824.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['7月25日，市委书记李世峰主持召开市委常委会会议，传达学习习近平总书记近期重要讲话重要指示精神，贯彻落实黑龙江省党政代表团长三角地区学习考察交流总结座谈会精神和省委书记许勤相关批示要求，听取全市防汛、安全生产、中央环保督察整改、经济运行、劳模评选情况汇报，研究部署相关工作。 会议指出，全市各级各部门要把中央深改委部署的改革事项纳入改革“大盘子”，统筹好发展和减排关系，精准对接石油天然气市场体系改革，统筹推进农业农村、高等学校和科研院所薪酬制度等改革任务，运用“四个体系”闭环机制抓好推进落实。要牢牢把握高质量发展这一首要任务，强化创新驱动全力助推内涵式增长，坚守实体经济加快构建现代化产业体系，坚持守正创新加强城乡精神文明建设，树牢宗旨意识扎实推进社会治理现代化，突出以学促干营造真抓实干良好风尚。要强化对重点经济指标的分析研判，加紧运行调度，着力提振消费信心，有效防范化解房地产、金融、地方债务风险，确保党中央各项决策部署在大庆不折不扣贯彻落实。要把党的领导贯穿网信工作始终，落实“十个坚持”重要原则，严格落实网络意识形态、网络安全工作责任制，切实肩负起举旗帜聚民心、防风险保安全、强治理惠民生、增动能促发展、谋合作图共赢的使命任务。 会议强调，近期国内省内洪涝灾害、安全生产事故多发，各级各部门要坚决贯彻落实习近平总书记重要指示精神、党中央国务院有关部署和省委书记许勤批示要求，真正从事故教训中警醒起来，以“时时放心不下”的责任感抓实抓细防汛救灾、安全生产各项工作，特别是要加强雨情、水情、汛情监测预警，紧盯重点区域排查整治风险隐患，压实各方责任提升安全处置能力，全力确保河湖安澜、城市安全、人民安宁。 会议强调，要深入学习贯彻习近平生态文明思想，以更高站位、更宽视野、更大力度谋划推进生态环境保护工作。要强化系统思维，统筹推进生态环保重点任务，深入打好污染防治攻坚战，积极稳妥推进碳达峰碳中和，坚持山水林田湖草沙一体化保护和系统治理，紧盯安肇新河、黑臭水体、农业面源污染、垃圾处理、污水处理等重点领域，持续加强源头治理、综合治理。尤其要坚持问题导向，全面抓好中央环保督察反馈问题整改。 会议强调，年初以来，全市经济运行始终处于承压前行、稳中有进的发展态势。盘点上半年工作，既要肯定成绩，也要认清挑战，持续增强“抓经济、稳增长”的信心决心，坚持聚精会神抓发展、全力以赴拼经济，冲刺“三季度”、拼抢“下半年”。各级各部门要锚定全年目标，紧盯三次产业挖掘潜力，抓好项目建设积攒后劲，强化为企服务提升效能，筑牢安全基础维护稳定，加强民生保障增进福祉，全力推动经济运行实现质的有效提升和量的合理增长。 会议原则同意市第十五次劳动模范表彰人选，强调要严格标准程序把好劳模评选关口，加大宣传力度营造良好社会风尚，强化典型引领建强产业工人队伍。 会议还研究了其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>61</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>李世峰拜会国家部委中石油集团和对接在京高校推进合作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100316/202406/c05_343750.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['随省党政代表团赴京津冀学习考察后，市委书记李世峰一行6月14日至15日分别拜会了国家发改委、国家能源局和中石油集团，并到中国地质大学、北京化工大学考察对接，就有关事项进行深入沟通和对接争取。', '李世峰一行前往国家发展改革委区域开放司和国家能源局油气司、国际司，深入沟通推进古龙页岩油勘探开发、新能源产业发展、中俄能源化工合作等事项。国家相关部委表示，要以习近平总书记关于能源安全新战略为总遵循，准确把握国家关于能源工作做好“四个统筹”总要求，一如既往支持大庆古龙页岩油勘探开发，支持大庆申建中俄能源化工合作示范区，持续跟进新型油气科技重大专项实施进展，不断提高政策供给水平，助力大庆高质量发展可持续振兴。', '李世峰一行拜会了中石油集团，集团相关领导感谢黑龙江省委、省政府和大庆市委、市政府长期以来对中石油集团驻黑龙江企业的支持帮助，特别是常规油气和页岩油气勘探开发、千万千瓦级新能源基地建设、成品油市场秩序整顿规范、科技创新与人才服务等提供的服务保障和要素支撑。李世峰汇报了大庆地企深度融合发展、合力保障国家能源安全相关情况，恳请中石油集团在排产计划、新增页岩油资源在庆加工利用等方面继续给予大庆倾斜和支持。', '李世峰一行先后到中国地质大学、北京化工大学学习交流，参观学校国家重点实验室、工程技术研究中心等，就共同推动科技创新、成果转化、人才培养等进行了深入对接。中国地质大学党委书记雷涯邻表示希望与大庆市建立全面战略合作机制，加入大庆能源和新材料创新联合会，围绕深地、新能源、“双碳”等领域开展合作。北京化工大学党委书记刘贵芹表示将一如既往地为大庆企业精准赋能，推动学校科技成果向大庆转移转化，进一步促进校地协同、融合发展。', '李世峰在拜访对接过程中感谢国家部委、中石油集团和高校一直以来给予大庆的关心支持。他表示，当前，大庆正深入学习贯彻习近平总书记视察龙江期间重要讲话重要指示精神，主动融入东北全面振兴全方位振兴战略全局，自觉扛起维护国家“五大安全”重大政治责任，聚焦建好建强“三基地一屏障一高地”，因地制宜培育形成新质生产力，创新实干加快推动高质量发展。实现大庆转型振兴，既要靠增强内生动力，更离不开外力鼎力相助。希望国家发改委、国家能源局等部委和中石油集团、高校科研院所等各方面继续关注关心大庆、支持扶持大庆、联合赋能大庆，助力大庆加快“三个城市”建设和中国式现代化大庆新实践。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>61</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>李世峰主持召开十届市委财经委员会年第一次会议</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100316/202406/c05_344529.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['6月20日，市委书记、市委财经委员会主任李世峰主持召开十届市委财经委员会2024年第一次会议，传达学习习近平总书记关于财经工作的重要论述及我省党政代表团赴京津冀地区学习考察精神，认真落实二十届中央财经委员会第四次会议、十三届省委财经委员会第三次会议部署要求，调度推进“双过半”、大规模设备更新和消费品以旧换新、有效降低全社会物流成本工作。', '市委财经委员会副主任李岩松，市领导王艳茹、云兆武、何英明、于雷出席会议。市相关部门和高新区、经开区、各县区分别汇报有关情况。', '会议指出，省党政代表团日前赴京津冀学习考察，这是深入贯彻习近平总书记视察我省期间重要讲话重要指示精神的具体行动，充分体现了省委“身在最北方、心向党中央”的高度政治自觉。京津冀地区强大的科创爆发力、蓬勃的产业生命力、充足的内生融合力，特别是在构建现代化产业体系、培育新质生产力方面作出巨大投入，成为引领全国高质量发展的三大重要动力源之一和推进中国式现代化建设的先行区示范区。全市上下必须增强“坐不住、等不起、慢不得”的紧迫感，加快转化考察成果、深化区域交流合作，加快推动大庆高质量发展可持续振兴。', '会议强调，当前正值决定全年经济走势的关键期，也是抢时间、赶进度、抓落实的黄金期，必须进一步聚焦经济建设中心和高质量发展首要任务，锚定年初既定目标任务，坚持“以进促稳、提质增量”工作基调，全力以赴“稳增长”、奋力冲刺“双过半”，持续巩固和增强经济回升向好态势，以优异成绩迎接党的二十届三中全会胜利召开。', '会议强调，必须树立大局观念、整体观念、系统观念，聚焦“双过半”强攻势、筑优势、成胜势。要站位全局领会进一步全面深化改革、推进中国式现代化“国之大者”，找准定位抓牢推进“六个龙江”建设、深化“八个振兴”战略“省之要事”，强化担当肩负龙江第二大经济体“己之重任”，聚力推动经济实现质的有效提升和量的合理增长，以“半年攻坚之势”筑牢“全年发展之基”。必须坚持目标导向、问题导向、结果导向，锚定“双过半”盯重点、克难点、育亮点。要加强经济运行调度挖潜能，紧盯规上工业增加值、固定资产投资、社会消费品零售总额等关键指标抓提升，统筹协调抓入统，助企纾困抓服务，鼓励骨干企业加大排产计划，支持新晋规企业有序扩产，推动减停产企业及早复产。要狠抓项目引建聚动能，牢固树立“项目为王、招商为先”理念，围绕构建“1357”现代化产业体系，瞄准粤港澳大湾区、长三角、京津冀等区域的“六强”企业和细分行业领军企业抓招商、上项目、育产业，抢抓项目建设“黄金期”加快推动“三个一批”项目早开工、早建成、早达产，促进经济发展向新而行、向高而攀。要抢抓国家重大战略实施和重大领域安全能力建设、大规模设备更新和消费品以旧换新机遇提效能，准确把握战略方向、政策导向和投资动向，切实把政策机遇转化为发展红利。要深化改革创新强赋能，充分学习借鉴京津冀地区先进经验，全面加快重点改革步伐，扎实推进营商环境“攻坚创新50条措施”，构建“高效办成一件事”常态化机制，加速释放市场经济活力和社会创造力。要激活消费市场增势能，积极培育新产业、新业态、新模式，用足用活政府消费券、以旧换新等政策，搭建消费平台场景，大力发展特色文化旅游，打造新的经济增长点。要保障安全发展履职能，树牢“人民至上、生命至上”安全发展理念，从严从实从细抓好安全监管、风险隐患排查、信访矛盾化解、社会治安防控特别是防汛抗旱工作，坚决确保社会大局安全稳定。', '会议强调，经济发展是“实打实”的工作，必须拿出“硬碰硬”的作风。全市各级各部门要结合开展党纪学习教育，坚持守土有责、守土负责、守土尽责，发挥好“关键少数”的关键作用，运用好重点产业链“链长制”、重大项目“四个一”推进机制等机制办法，锤炼扎扎实实、踏踏实实、求真务实优良作风，以狠抓落实新成效推动经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>61</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>黑龙江广东产业合作与开放交流大会举行</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/sqzwxx/202304/c05_256698.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['4月21日至23日，黑龙江省党政代表团在深圳市学习考察。22日上午，以“南北共享新机遇 合作擘画新未来”为主题的黑龙江-广东产业合作与开放交流大会在深圳举行。省委书记、省人大常委会主任许勤致辞，省委副书记、省长梁惠玲作主题推介，省政协主席蓝绍敏出席。广东省人大常委会主任黄楚平，广东省委副书记、深圳市委书记孟凡利出席有关活动。', '许勤代表省委省政府对广东省、深圳市和与会企业家、投资家长期以来给予黑龙江振兴发展的关心支持表示感谢。他说，深圳经济特区是我国改革开放的重要窗口和“试验田”，以“敢为天下先”的勇气和“杀出一条血路”的担当，在建设中国特色社会主义伟大进程中谱写了勇立潮头、开拓进取的壮丽篇章。党的十八大以来，深圳市委市政府牢记习近平总书记殷切嘱托，扎实推进中国特色社会主义先行示范区建设，创造了世界发展史、经济发展史、城市发展史上的奇迹，是中国共产党领导下开辟中国特色社会主义道路的生动实践，充分彰显了习近平新时代中国特色社会主义思想的真理力量。广东省、深圳市和黑龙江省在国家发展大局中都肩负着重大使命责任，新征程上，我们要深入贯彻落实习近平总书记重要讲话重要指示精神和党中央决策部署，深化南北互动，推动优势互补，共同续写新时代“春天的故事”。聚焦服务国家大局加强战略对接，紧扣国家需要和地方发展，在落实粤港澳大湾区建设和东北振兴等国家重大战略中找准定位、协同发力，携手为推进中国式现代化贡献力量。聚焦实现互利共赢强化协调联动，着力促进双方资源共享、要素流动、产业融合，深化数字经济、生物经济、现代农业、对外贸易、文化旅游等领域合作;以供给侧结构性改革和消费升级需求为引领，不断转方式调结构优布局;以黑龙江优质农产品与广东、深圳资本技术产业深度融合，打造世界一流食品工业。聚焦激发市场活力持续优化环境，学习借鉴广东、深圳的新理念、新机制、新模式，持续打造市场化法治化国际化一流营商环境，当好企业服务员，让广大企业家在龙江安心投资兴业、实现共赢发展。', '梁惠玲在作推介时说，黑龙江是国家老工业基地、国家重要的商品粮生产基地、绿色食品产业基地、重型装备生产制造基地和能源及原材料基地，农业资源优势得天独厚，工业体系较为完备，旅游资源丰富，科教实力雄厚，区位优势明显，在诸多领域合作前景广阔。当前，全省上下正在深入贯彻落实习近平总书记重要讲话重要指示精神，贯彻落实党的二十大精神，推进龙江全面振兴全方位振兴，大力发展科技农业、绿色农业、质量农业、品牌农业，加快构建“4567”现代产业体系，谋划发展数字经济、生物经济、冰雪经济、创意设计产业，着力发展航空航天、电子信息、新材料等战略性新兴产业，优先发展冰雪旅游、生态旅游、户外运动，加快推动科技成果产业化，全力打造我国向北开放新高地。省委省政府始终高度重视营商环境建设，制定出台优化营商环境条例，全方位打造投资服务好环境。诚邀各位企业家与龙江深化合作，感受龙江高质量发展新变化，共享龙江产业振兴和向北开放新机遇，奋力谱写全面建设社会主义现代化国家龙江新篇章。', '腾讯公司董事会主席兼首席执行官马化腾，广东省工商业联合会主席、总商会会长、研祥高科技控股集团有限公司董事局主席陈志列，深圳市高发投资有限公司董事长柳玉滨，中顺洁柔纸业股份有限公司董事长刘鹏，深圳中意集团有限公司董事长赵心竹，深圳市工业设计行业协会会长封昌红和深哈产业园投资开发有限公司董事长奉均衡等围绕加强产业投资、深化互动合作、助力龙江振兴作了发言。', '本次大会由黑龙江省政府与广东省政府共同主办。两地对口城市及有关省直部门签署合作协议，签约投资项目192个、签约金额982.38亿元。会前，举办了“黑土优品”品鉴展示活动，许勤、梁惠玲现场向与会嘉宾进行推介，来自黑土地的绿色农产品、优质食品等特色产品得到一致好评。', '在深圳期间，黑龙江省党政代表团与深圳市举行工作座谈会，许勤、孟凡利出席并讲话，双方就深化合作达成了共识、作出了部署。代表团还考察了华大基因国家基因库、比亚迪股份有限公司、深圳证券交易所、深圳市工业设计行业协会中芬设计园、研祥智能科技股份有限公司、玛丝菲尔时尚集团、深圳市联合飞机科技有限公司、中科院深圳先进技术研究院、深圳市政务服务数据管理局城市管理服务指挥中心、深圳人才公园、前海深港现代服务业合作区及自由贸易试验区。', '广东省及深圳市领导张虎、程福波、覃伟中、骆文智、林洁，省领导张安顺、王一新、杨博、于洪涛、王永康、韩圣健、张亚中参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>61</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>打造倾城湖链构建宜居环境全力推进滨水绿道建设</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-09-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/shizhengjianshe/202209/c05_126930.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['“创新、协调、绿色、开放、共享”五大发展理念，着力完善城市功能、展现城市特色、改善环境质量、引领低碳发展，努力构建具有我市特点的生态健康游憩绿道网络，为市民提供休闲、旅游、健身、运动的好去处，不断提高人民群众归属感、幸福感和获得感。', '2021年，我市明确以贯穿龙凤区、高新区、萨尔图区三个主城区黎明河滨水绿地为载体，围绕“以河连湖，以绿串蓝”理念，通过黎明河绿道将三永湖、万宝湖、青龙湖、黎明湖、滨州湖、兰德湖、北湖、萨北湖、龙凤湿地有机连在一起，构建“一河、八湖、一湿地”的“滨水绿道”生态绿道系统。', '“滨水绿道”规划建设滨河绿道、环湖绿道和街巷绿道三种类型，总长度30余公里。市委市政府已将该项目纳入重点民生工程和生态工程，规划建设方案先后通过市规委会、市政府常务会和市委常委会审议', '该项目立项历时半年时间进行多轮谋划及论证，数次征求相关专家及社会各界意见，并聘请中国规划设计研究院、中国中建设计集团分别开展城市体检和城市风貌更新调研。同时，邀请哈尔滨筑雅建筑景观设计有限公司、海南海大工程设计研究院专家就', '2021年5月市城管局组织规划设计人员赴江阴、上海、苏州、杭州等城市学习考察当地绿道建设，结合大滨水绿道建设形成专题考察报告，在“滨水绿道”项目规划设计中吸收借鉴先进经验理念，确保高质量、高水平完成各项规划设计工作。', '我市建成区面积较大，城市绿道密度偏低，城区内湖泊众多，但在滨水环境空间建设方面还存在', '“散、平、闭”问题，人与绿地、滨水空间三者之间缺乏有机联动，导致大庆天然百湖未能发挥应有吸引力。为改善绿化景观平淡、建设内容同质化现状，在项目规划建设中，突出以人为本', '“滨水绿道”规划建设以休闲健身为重点，注重人性化设计，完善绿道配套服务设施，让市民“进得来、留得住、玩得嗨”。在实施过程中，以万宝湖、黎明湖、兰德湖等公园内原有场地为依托，新建篮球、足球、门球、轮滑、儿童游戏等运动场地，打造运动、亲子、新艺术活动空间。同时，将现有生活广场、林下空间改造升级，设置导引系统、售卖亭、休息廊、驿站等服务设施，为游客、行人提供观赏、驻足、集会、学习、交流场所。', '“滨水绿道”规划建设注重提升大庆精神、铁人精神内涵，弘扬红色文化基因，延续城市文脉，留住城市记忆，为油城文化添上浓墨重彩一笔。黎明河沿线节点景观处理充分与党建、工业、诗歌、运动、亲子等元素相结合，绿道共设置“海绵都市”“建党百年”“游林观水”“魅力都市”“诗意生活”“工业记忆”6大景观主题区，并新建“抽油机观景塔”“第一列原油列车”“诗词廊架”“儿童天地”“创客空间”“运动圣地”等主要景观节点，满足游客、行人休闲赏景的同时，感受大庆特有文化意境。', '“滨水绿道”建设项目主要沿黎明河主轴线纵伸延展，贯穿萨尔图区和龙凤区，将各个湖区联系起来，通过河道游线和湖泊环线进行连通，形成一条城市滨河慢行休闲系统。前期通过实地调研勘察，针对城市道路现状，研究确定上跨立交、下穿通行等不同跨线形式，尽量避让现存管线、建筑和树木，形成通畅安全慢行空间，引导更多市民在绿道中散步、骑行，把“滨水绿道”打造成一条户外体育运动健康之路。', '“滨水绿道”建设充分利用现有河道、湖泊、湿地、林地自然景观，注重因地制宜，顺势而为。黎明河南段临近龙凤湿地，景观规划以自然生态为主，突出郊野绿道风貌。黎明河城区段利用现有绿化景观，进行树木微调整，增加部分彩叶树品种，丰富园林植物景观，打造景观绿道。同时，新规划建设步道、驿站、景点等组成部分依据沿河两岸地势高低起伏变化借势而做，建筑风格、色彩、形态、布局与黎明河周边环境有机融合。', '绿地竖向设计融入海绵城市规划理念，注重生态环境构建，局部营建生态植草沟、滨河湿地，通过生态驳岸、水自然净化设施建设，构建自然生态河道，创建市民亲近自然河道滨水空间，为黎明河生态环境保护和提升起到重要支撑作用。', '在树木应用方面坚持以耐盐碱本地树种为主，适地适树，积极引进沙棘、蒙古栎、梓树、水曲柳等树种，做到乔、灌、花、草、篱群落配置，以', '“绣花”功夫做好硬化、绿化、美化细部整理工作。科学保护原有树木，尽量减少树木移植，确因规划建设需要进行部分移植树木，按移植技术规程进行就近移植，确保树木成活和保持原有景观效果。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>61</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>李世峰主持召开年一季度经济形势分析会暨赴广东学习考察及对口合作总结会</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-04-30</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100316/202305/c05_257268.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['李世峰主持召开2023年一季度经济形势分析会暨赴广东学习考察及对口合作总结会-大庆市人民政府', '4月29日，市委书记李世峰主持召开2023年一季度经济形势分析会暨赴广东学习考察及对口合作总结会，传达学习省委书记许勤、省长梁惠玲在黑龙江省党政代表团广东学习考察座谈会讲话精神，分析研判全市一季度经济运行态势，总结盘点赴广东学习考察及对口合作活动。李世峰强调，全市上下要锚定目标、振奋精神、真抓实干，全力以赴“拼经济、抓发展、促转型”，以更加精准务实的工作举措，推动全市经济运行整体好转，奋力谱写大庆转型振兴、高质量发展新篇章。', '李岩松、杨守德、吕建国、王艳茹、云兆武、何英明、孙永刚、巴小东、颜祥森、朱清霞、王凤文、田大文、晋伟、迟维喜和陈国彬出席。', '会议强调，要进一步认清形势、找准差距，把“拼经济、抓发展、促转型”的紧迫意识真正“树起来”，增强“坐不住、等不起、慢不得”的紧迫感，对标先进、扬长避短、乘势而上，以更高站位、更宽视野、更大力度，推动经济发展整体恢复向好、动能持续增强、预期显著改善，确保大庆转型振兴行稳致远。要进一步聚焦重点、突破难点，让“拼经济、抓发展、促转型”的攻坚举措真正“实起来”，稳住骨干企业，夯实规上工业支撑；优化包保服务，加快项目建设速度；瞄准战新产业，增强招商引资质效；深化改革创新，积蓄内生增长动能；放大旅发效应，挖掘消费需求空间；抓好春耕生产，打牢农业丰收基础；压实安全责任，维护和谐稳定大局，全力奋战二季度、跑出“加速度”，确保上半年时间过半、任务过半，为实现全年目标奠定坚实基础。要进一步提升能力、提振状态，将“拼经济、抓发展、促转型”的责任使命真正“扛起来”，把抓经济发展的实际行动作为对党员干部能力作风的直接检验，以“紧严细实”的过硬作风，推动各项工作取得更大突破。', '会议通报了一季度全市经济运行及高新区、各县区、经开区主要经济指标完成情况，市发改委、市工信局、高新区、经开区等部门和县区负责同志分别发言。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>61</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>签约额亿元大庆招商引资踔厉奋发</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-02-23</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/sqzwxx/202202/c05_80080.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['随省政府代表团赴广东省学习考察交流期间，大庆签约12个重点项目、列全省第1位，签约额205.8亿元、列全省第2位;', '亚布力论坛第21届年会系列活动，大庆签约12个重点项目、签约额237.3亿元，项目数量和签约额均列全省第2位。', '“加力推进黑龙江全面振兴全方位振兴!”省委、省政府的安排部署，正是市委、市政府埋头苦干的着力点。市委书记李世峰说，在项目建设上，要瞄准产业链节点“引”、聚焦供应链缺口“补”、紧盯价值链高端“上”，把项目做成龙头、让产业形成规模。', '近年来，大庆坚持把招商引资作为产业项目建设的“优先工程”来抓，组织各市级和县区、开发区招商专班积极赴外开展招商活动，精准对接目标企业，提升产业招商质效，以实现产业发展“换道超车”、开拓经济转型新蓝海。', '招商引资如同在大庆热土上播种，选什么样的种子、种在哪里、如何施肥……似乎有无数个问号等待回答。', '与很多城市一样，大庆的转型发展离不开招商引资和项目建设，也同样走过了从招商引资1.0时代到3.0时代的进程。而迈入招商引资3.0时代的大庆，根据全面振兴全方位振兴的发展目标，走出了一条发展新路子。', '招商引资“跳脚摘桃”，重大招商活动不缺席，市领导既挂帅又出征，带队参加省里有关重大招商活动，全力推介宣传大庆优势资源和投资机遇，2021年外埠招商合作，共计签约项目39个，总签约金额629.7亿元。', '在此基础上，大阔步“走出去”，向数字经济、生物经济等新兴企业抛出“橄榄枝”，市委主要领导带队赴南京、苏州开展专项招商，考察对接苏美达、道森钻采设备、常熟塑擎汽车零部件、同方计算机、纳微科技5家企业，并成功与苏美达公司签约。', '酒香也怕巷子深，孤芳自赏的时代已经成为过去。为把大庆优势资源和投资机遇推介到全国各地，我市聚焦发达地区开展驻点招商，并制定实施《2021年大庆市招商引资专班工作方案》，成立15个招商专班，统一调度督导、专班专人推进，构建形成了“纵向联动、横向协同”的招商引资工作体系。', '招商专班聚焦珠三角、长三角、京津冀鲁豫等地区，与当地商会协会、科研机构和龙头企业建立密切联系，瞄准与大庆市主导产业关联密切的重点企业，长期驻点跑片，逐户登门拜访，推介宣传大庆优势资源，把招商阵地摆到目标企业大门口，让企业车间和企业家办公室变成招商的洽谈地。', '先后引进厦门钨业碳中和科技产业园、江苏汉光17.5万吨/年化工新材料、明阳智慧能源集团新能源高端制造产业集群、中国南海-麦克巴高端油服产业基地等一批重点产业项目。', '亮出“家底”迎客来，我市把油头化尾、食品加工、装备制造、新材料、新能源等5条主导产业链29个主攻方向全都集中在一个招商图谱里，大庆究竟有什么、能生产哪些原料、能提供什么政策、有什么企业和项目，一目了然。', '15个招商专班手里攥着图谱，紧盯产业链闭合、项目裂变、关联企业，想着法引进产业链关键节点项目、上下游配套企业，提升产业整体竞争力，让产业链招商“链”出发展新动能。', '补链、延链、强链……我市相继引进华垣化工40万吨/年乙烯裂解副产品综合利用等油头化尾项目，牧原肉食品加工等食品加工项目，浙江优力仕高效节能专用机等装备制造项目，唐山森科300万件/年高档卫生瓷等新材料项目，信義光能新能源基地等新能源项目。', '在此带动下，油田、石化、炼化等驻庆大型央企，依托其油气原料和化工产品，围绕上下游吃配开展产业链节点招商。', '龙凤区联合大庆石化公司共同招商，引进了徐州海天集团投资110亿元的150万吨/年烷烃综合利用项目;经开区与华能蒙东能源有限公司合作建设风光氢储综合应用示范区项目。', '省第五届旅游产业发展大会将在大庆举办，为实现“办一次会、招一批商、兴一座城”的目标，市商务局与市文广旅局组建旅发招商专班，全力加快旅游产业招商。', '连日来，专班围绕旅游服务中心、城市数字中心、城市文化中心功能建设和管理运营，正在对接携程网、众信旅游、美团等企业。筛选谋划形成黑鱼湖温泉康养、阿木塔蒙古风情岛旅游景区等34个文化旅游产业招商推介项目，正在积极联系目标合作企业。', '同时，围绕大庆宾馆、昆仑唐人酒店、城市数字中心酒店等开展招商，目前正在对接成都如宾酒店管理公司等合作企业。针对龙凤湿地公园等项目开展招商，已引进深圳华侨城旅投集团、沧州狮城主题游乐公司等企业，与市城投公司顺利对接、合作推进龙凤湿地公园、大庆儿童公园等现有景区优化提升。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>61</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>大庆市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>大庆市人民政府关于年度法治政府建设情况的报告</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-03-25</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.daqing.gov.cn//daqing/c100430/202103/c05_76473.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['大庆市人民政府关于2020年度法治政府建设情况的报告_法治政府报告_大庆市人民政府', '2020年，我市深入学习习近平总书记全面依法治国新理念新思想新战略，认真贯彻落实中央全面依法治国委员会和省委全面依法治省委员会第三次会议精神，全面实施《大庆市法治政府建设实施方案（2017-2020年）》，正视短板不足，把准主攻方向，持续谋求突破，全力推动社会治理体系和治理能力的改进提升，法治政府建设取得了明显成效，得到了中央依法治国办督察组、省委依法治省办法治建设综合性督察组肯定和好评，为全市经济社会持续健康发展提供了强力支撑。按照要求，现就有关情况报告如下。', '（二）突出地方特色，推进行政执法工作创新。对生态环境保护、交通运输、农业、文化市场、市场监管“五大领域”执法机构编制人员情况进行调查摸底和情况梳理，制定了三定方案，组建了综合行政执法机构，深入推进“五大领域”综合执法改革。大力推行“强街（镇）扩权”改革，印发《大庆市推进基层整合审批服务执法力量主要任务清单》，积极推进编制资源向乡镇和街道倾斜，城管的力量下沉到了基层，警务室、司法所与街道社区实现了“同址办公”，一些县区探索了“街道吹哨、部门报到”工作模式。召开了大庆市依法治市工作经验交流会议，市公安局行政执法三项制度、市住建局工程建设项目审批制度改革、让胡路区借疫情“大考”强街扩权、大同区全面加强乡镇法治政府建设、红岗区持续优化政务服务等多个法治政府建设方面的经验在会上交流，推动了全市法治政府建设提档升级。', '（五）突出合力监督，强力制约行政执法权力。发挥行政复议层级监督作用，做到行政复议案件“应受尽受”，共受理案件40件，审理66件（去年结转26件），审结58件（去年结转26件），其中维持20件，驳回3件，撤销1件，确认违法1件，责令履行1件，终止32件。严格落实行政机关负责人出庭应诉制度，建立行政机关负责人出庭人员数据库，定期与市法院联合通报负责人出庭应诉情况。以市政府和市政府各部门为被告的行政案件，行政机关负责人应诉率达到100%。市政府及各组成部门尊重司法审判结果，认真对待法院生效判决，执行判决结果不打折扣，做到了按判决的要求和法治精神调整行政行为，配合支持了行政审判执行工作的开展。落实国家工作人员旁听庭审制度，组织行政机关领导干部、执法骨干，现场观摩行政诉讼案件庭审，进一步提升了行政机关工作人员依法行政意识。强化责任追究，严打涉黑涉恶腐败和“保护伞”，严查执法不公、执法不严、侵害群众利益问题。', '（六）突出深度服务，通过法治手段优化环境。针对《民法典》《野生动物保护法》等法律法规的颁布实施，全面组织开展行政规范性文件“法律体检”，彻底清理影响和制约经济发展的法规和文件，坚决释放制度红利，全市总计保留426件、修改46件、废止96件。加强线下大厅建设，市政务服务中心进驻38个部门、282人、904个事项。按照“一网四级”模式和政务服务事项“应上尽上”原则，将全市132个便民服务点全部打通，全市“网上办”“最多跑一次”事项比率达到91.09%，“网上办不见面”事项占比近70%。在全市统一建立了“前台综合受理、后台分类审批、一窗统一发证”的“一窗”模式，并以此为依托推行“六十小”“企业一天开办”“工程建设并联审批”等领域的“一件事”办理，全市“一窗”受理率达到80%以上。联动推进“走流程转作风”制度化常态化，全市各级领导干部累计“走流程”1854人次，“线上+线下”体验流程2243个，整改问题2166个。推进“证照分离”和注销便利化改革，市场主体全业务类型网办率达到90%，其中企业设立登记网办率从2019年的48.16%增长到2020年的95.74%，498户企业通过简易注销退出市场。在我市党风政风行风热线节目直播中，群众评议满意度达到93.7%。', '（七）突出重点领域，着力提升社会治理水平。完善常态化疫情防控体制机制建设，突出抓好源头防控、复产复工、维护秩序、法律服务等重点工作，围绕暴露出的问题补短板、堵漏洞、强弱项，为疫情防控提供强有力的法治保障。深入推进法治宣传教育，推进落实政府常务会议学法制度、国家机关“谁执法谁普法”责任制、以案释法长效机制，在全省率先实施了普法责任制百分考评标准，深化“宪法”“民法典”“优化营商环境”“防控疫情”等系列专题法治宣传，不断提升普法精准度。全面推进法治乡镇创建、民主法治村创建，全市共有全国民主法治示范村（社区）5个、全省民主法治示范村（社区）82个、全市民主法治单位123个。稳步推进公共法律服务平台建设，建成市级公共法律服务中心1个、县区公共法律服务中心10个、乡镇（街道）公共法律服务工作站89个，736个村（社区）全部配备了法律顾问，实现了公共法律服务“市县乡村”四级全覆盖。巩固发展大庆人民调解“4543”工作模式，构建“预防在前、调解居中、司法兜底、平台运转”的新机制，突出了综治中心的统筹作用，全力打造全国市域社会治理现代化城市，全省市域社会治理现代化工作交流推进会在我市召开。', '2021年，我市将以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九届五中全会以及中央全面依法治国工作会议精神，突出问题导向、目标导向、效果导向，继续深化法治政府建设示范创建活动，狠抓体制改革、依法决策、执法培训、监督制约、法治乡村、普法宣传等依法行政工作措施的谋划、推进和落实，不断开创法治政府建设新局面，为打造东北地区营商环境最优城市、争当排头兵、建设新大庆提供有力法治保障。', '（一）持续深化法治政府建设。持续推进“五大领域”综合执法改革和“强街（镇）扩权”改革，深化法治政府建设示范创建自查自评活动，有计划地组织人员赴工作先进的省、市、县区开展对口交流、学习考察，增长见识，拓宽思路，移植复制示范地区和项目的经验做法。对照示范创建指标体系逐项进行再梳理、再优化、再完善，条件成熟完备的，积极整理佐证材料，为2021年的申报做好准备；距离指标体系还有差距的，找准薄弱环节，查缺补漏，落实攻坚举措，努力提高整体创建水平。', '（二）认真履行重大决策程序。注重突出地方特色，围绕城乡建设与管理、环境保护、历史文化保护等方面的事项，做好立法决策与改革决策的精准有效衔接，以高质量立法引领推动高质量发展。落实行政规范性文件制定、备案相关工作制度，持续提高行政规范性文件制定水平。完善重大行政决策事项标准，增强依法决策程序意识，提高决策水平。', '（三）加强行政机关执法能力建设。开展“三项制度”回头看活动，聚焦行政执法关键环节，推进自查自纠和互查互评，认真查找工作短板和薄弱环节，建立问题清单，明确整改时限，逐条逐项整改销号，进一步提升“三项制度”落实效果。组织开展全市行政执法人员培训和行政诉讼案件旁听庭审活动，严格落实行政执法人员持证上岗和资格管理制度，做好执法证件换发工作，不断提高行政执法人员依法行政理念。', '（四）加大行政执法监督力度。通过开展行政执法检查、卷宗评查等活动，进一步规范执法程序，提升行政执法人员的业务能力和水平，适时组织召开全市行政执法现场经验交流会，不断提高行政执法规范化水平。紧盯公安、市场监管、城管、交通等重点执法单位，深入执法现场、执法一线，组织开展实地调研和督导，监督、指导执法全过程。组织聘请行政执法特邀监督员，促进行政机关依法执法。', '（五）深入开展行政调解工作。将落实“谁执法谁普法”普法责任制和推进以案释法融入行政调解工作，进一步健全工作制度，完善联动机制，加强组织指导，明晰工作职责，开展技能培训，狠抓推进落实。将行政调解工作纳入法治建设考核内容，构建市、县区两级行政调解网络，适时召开全市行政调解工作会议，形成“党委领导、政府主导、部门协同、全员参与”的行政调解工作格局。', '（六）深化法治乡村示范建设。全面落实中央全面依法治国委员会《关于加强法治乡村建设的意见》，健全完善涉农法律法规的相关配套制度措施，实行农业执法“双随机、一公开”监管模式，全面落实行政执法“三项制度”，加强对农业农村环境污染和破坏生态资源等重点问题的依法治理，健全乡村公共法律服务体系，加强乡村法治宣传教育，深化平安村创建活动，健全乡村矛盾纠纷化解机制，在乡村形成办事依法、遇事找法、解决问题用法、化解矛盾靠法的浓厚氛围。', '（七）强力推进法治政府建设督察考核。坚持以人民为中心，向社会发布征求法治政府建设意见建议的公开信，通过征求意见明确群众最关心、焦点最集中、问题最凸显的行业，有针对性地开展工作督察。在认真总结2020年度法治政府建设考核的基础上，制定实施2021年度法治政府建设考核方案和细则，确保年度重点工作任务圆满完成。']</t>
         </is>
